--- a/SchedulingData/static5/pso/scheduling1_11.xlsx
+++ b/SchedulingData/static5/pso/scheduling1_11.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>89.52</v>
+        <v>66.52</v>
       </c>
       <c r="E2" t="n">
-        <v>25.688</v>
+        <v>25.528</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>74.40000000000001</v>
+        <v>57</v>
       </c>
       <c r="E3" t="n">
-        <v>26.7</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="4">
@@ -519,173 +519,173 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>66.52</v>
       </c>
       <c r="D5" t="n">
-        <v>65.90000000000001</v>
+        <v>103.84</v>
       </c>
       <c r="E5" t="n">
-        <v>25.58</v>
+        <v>22.936</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>89.52</v>
+        <v>103.84</v>
       </c>
       <c r="D6" t="n">
-        <v>139.32</v>
+        <v>149.34</v>
       </c>
       <c r="E6" t="n">
-        <v>22.328</v>
+        <v>19.516</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>149.34</v>
       </c>
       <c r="D7" t="n">
-        <v>75.2</v>
+        <v>201.2</v>
       </c>
       <c r="E7" t="n">
-        <v>24.66</v>
+        <v>15.46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>75.2</v>
+        <v>72.5</v>
       </c>
       <c r="D8" t="n">
-        <v>125.88</v>
+        <v>132.08</v>
       </c>
       <c r="E8" t="n">
-        <v>21.712</v>
+        <v>22.552</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>139.32</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>192.4</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>19.16</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>74.40000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>119.5</v>
+        <v>149.92</v>
       </c>
       <c r="E10" t="n">
-        <v>23.32</v>
+        <v>22.768</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>72.5</v>
+        <v>201.2</v>
       </c>
       <c r="D11" t="n">
-        <v>118.38</v>
+        <v>280.38</v>
       </c>
       <c r="E11" t="n">
-        <v>23.432</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>118.38</v>
+        <v>149.92</v>
       </c>
       <c r="D12" t="n">
-        <v>174.4</v>
+        <v>190.34</v>
       </c>
       <c r="E12" t="n">
-        <v>18.96</v>
+        <v>19.856</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>119.5</v>
+        <v>132.08</v>
       </c>
       <c r="D13" t="n">
-        <v>174.5</v>
+        <v>201.2</v>
       </c>
       <c r="E13" t="n">
-        <v>19.94</v>
+        <v>18.24</v>
       </c>
     </row>
     <row r="14">
@@ -694,55 +694,55 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>190.34</v>
       </c>
       <c r="D14" t="n">
-        <v>45.72</v>
+        <v>259.4</v>
       </c>
       <c r="E14" t="n">
-        <v>26.128</v>
+        <v>16.58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>65.90000000000001</v>
+        <v>280.38</v>
       </c>
       <c r="D15" t="n">
-        <v>148</v>
+        <v>319.18</v>
       </c>
       <c r="E15" t="n">
-        <v>20.48</v>
+        <v>9.372</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>174.5</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>260.96</v>
+        <v>73</v>
       </c>
       <c r="E16" t="n">
-        <v>15.884</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="17">
@@ -751,131 +751,131 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>174.4</v>
+        <v>201.2</v>
       </c>
       <c r="D17" t="n">
-        <v>233.24</v>
+        <v>273.06</v>
       </c>
       <c r="E17" t="n">
-        <v>14.696</v>
+        <v>13.664</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>192.4</v>
+        <v>259.4</v>
       </c>
       <c r="D18" t="n">
-        <v>259.9</v>
+        <v>304.4</v>
       </c>
       <c r="E18" t="n">
-        <v>16.04</v>
+        <v>13.22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>45.72</v>
+        <v>273.06</v>
       </c>
       <c r="D19" t="n">
-        <v>112.92</v>
+        <v>332.86</v>
       </c>
       <c r="E19" t="n">
-        <v>23.008</v>
+        <v>10.284</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>125.88</v>
+        <v>304.4</v>
       </c>
       <c r="D20" t="n">
-        <v>195.78</v>
+        <v>345.38</v>
       </c>
       <c r="E20" t="n">
-        <v>18.792</v>
+        <v>10.252</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>233.24</v>
+        <v>73</v>
       </c>
       <c r="D21" t="n">
-        <v>305</v>
+        <v>123.12</v>
       </c>
       <c r="E21" t="n">
-        <v>12.1</v>
+        <v>21.028</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>260.96</v>
+        <v>123.12</v>
       </c>
       <c r="D22" t="n">
-        <v>303.08</v>
+        <v>161.24</v>
       </c>
       <c r="E22" t="n">
-        <v>13.292</v>
+        <v>17.856</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>148</v>
+        <v>345.38</v>
       </c>
       <c r="D23" t="n">
-        <v>211.62</v>
+        <v>402.44</v>
       </c>
       <c r="E23" t="n">
-        <v>17.708</v>
+        <v>7.656</v>
       </c>
     </row>
     <row r="24">
@@ -884,17 +884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>211.62</v>
+        <v>57</v>
       </c>
       <c r="D24" t="n">
-        <v>272.92</v>
+        <v>115.84</v>
       </c>
       <c r="E24" t="n">
-        <v>14.188</v>
+        <v>22.216</v>
       </c>
     </row>
     <row r="25">
@@ -903,112 +903,112 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>195.78</v>
+        <v>161.24</v>
       </c>
       <c r="D25" t="n">
-        <v>244.58</v>
+        <v>199.38</v>
       </c>
       <c r="E25" t="n">
-        <v>16.552</v>
+        <v>15.172</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>272.92</v>
+        <v>319.18</v>
       </c>
       <c r="D26" t="n">
-        <v>333.42</v>
+        <v>374.78</v>
       </c>
       <c r="E26" t="n">
-        <v>10.768</v>
+        <v>6.452</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>348.8</v>
+        <v>51.12</v>
       </c>
       <c r="E27" t="n">
-        <v>8.359999999999999</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>303.08</v>
+        <v>115.84</v>
       </c>
       <c r="D28" t="n">
-        <v>367.16</v>
+        <v>185.44</v>
       </c>
       <c r="E28" t="n">
-        <v>11.004</v>
+        <v>16.876</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>112.92</v>
+        <v>51.12</v>
       </c>
       <c r="D29" t="n">
-        <v>172.5</v>
+        <v>114.52</v>
       </c>
       <c r="E29" t="n">
-        <v>19.16</v>
+        <v>22.828</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>172.5</v>
+        <v>199.38</v>
       </c>
       <c r="D30" t="n">
-        <v>244.26</v>
+        <v>260.48</v>
       </c>
       <c r="E30" t="n">
-        <v>14.584</v>
+        <v>11.692</v>
       </c>
     </row>
     <row r="31">
@@ -1017,74 +1017,74 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>259.9</v>
+        <v>114.52</v>
       </c>
       <c r="D31" t="n">
-        <v>333.72</v>
+        <v>157.02</v>
       </c>
       <c r="E31" t="n">
-        <v>12.288</v>
+        <v>19.708</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>244.26</v>
+        <v>374.78</v>
       </c>
       <c r="D32" t="n">
-        <v>304.04</v>
+        <v>448.76</v>
       </c>
       <c r="E32" t="n">
-        <v>10.736</v>
+        <v>4.164</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>333.42</v>
+        <v>260.48</v>
       </c>
       <c r="D33" t="n">
-        <v>391.66</v>
+        <v>301.36</v>
       </c>
       <c r="E33" t="n">
-        <v>8.084</v>
+        <v>8.744</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>391.66</v>
+        <v>157.02</v>
       </c>
       <c r="D34" t="n">
-        <v>445.52</v>
+        <v>211.32</v>
       </c>
       <c r="E34" t="n">
-        <v>4.808</v>
+        <v>16.408</v>
       </c>
     </row>
     <row r="35">
@@ -1093,131 +1093,131 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>244.58</v>
+        <v>301.36</v>
       </c>
       <c r="D35" t="n">
-        <v>314.8</v>
+        <v>370.72</v>
       </c>
       <c r="E35" t="n">
-        <v>13.12</v>
+        <v>5.888</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>333.72</v>
+        <v>370.72</v>
       </c>
       <c r="D36" t="n">
-        <v>373.68</v>
+        <v>403.52</v>
       </c>
       <c r="E36" t="n">
-        <v>9.432</v>
+        <v>3.248</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>348.8</v>
+        <v>211.32</v>
       </c>
       <c r="D37" t="n">
-        <v>439.4</v>
+        <v>258.72</v>
       </c>
       <c r="E37" t="n">
-        <v>4.88</v>
+        <v>13.288</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>304.04</v>
+        <v>258.72</v>
       </c>
       <c r="D38" t="n">
-        <v>369.74</v>
+        <v>297.74</v>
       </c>
       <c r="E38" t="n">
-        <v>7.256</v>
+        <v>10.516</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>369.74</v>
+        <v>332.86</v>
       </c>
       <c r="D39" t="n">
-        <v>442.16</v>
+        <v>387.86</v>
       </c>
       <c r="E39" t="n">
-        <v>4.084</v>
+        <v>6.904</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>373.68</v>
+        <v>185.44</v>
       </c>
       <c r="D40" t="n">
-        <v>406.48</v>
+        <v>240.94</v>
       </c>
       <c r="E40" t="n">
-        <v>6.792</v>
+        <v>12.456</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>367.16</v>
+        <v>297.74</v>
       </c>
       <c r="D41" t="n">
-        <v>437.58</v>
+        <v>345.72</v>
       </c>
       <c r="E41" t="n">
-        <v>8.092000000000001</v>
+        <v>7.348</v>
       </c>
     </row>
   </sheetData>
